--- a/doc/2023年共通/DB設計 テーブル定義書 .xlsx
+++ b/doc/2023年共通/DB設計 テーブル定義書 .xlsx
@@ -8,22 +8,22 @@
     <sheet state="visible" name="T_ONAIR_KANRI" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="M_TALENT" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="M_PROGRAM" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="M_CHANEL_KYOKU" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="M_CHANNEL_KYOKU" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="    M_KBN_GENRE" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="M_NENTSUKI_SHU_KANRI" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="SfuXak/OWpakwD5+2nxDR3H6sxV8DAQDJA2PvIfqurY="/>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mjdk15JUi4nF3PZ8zvkDXKFNmb88w=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="89">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -67,7 +67,7 @@
     <t>E-R図 挿入</t>
   </si>
   <si>
-    <t>M_CHANEL_KYOKU</t>
+    <t>M_CHANNEL_KYOKU</t>
   </si>
   <si>
     <t>チャンネル局マスタ</t>
@@ -234,7 +234,7 @@
     <t>番組名</t>
   </si>
   <si>
-    <t>CHANEL_ID</t>
+    <t>CHANNEL_ID</t>
   </si>
   <si>
     <t>チャンネルID</t>
@@ -243,7 +243,7 @@
     <t>CREATE TABLE `M_PROGRAM` (
   `PROGRAM_ID` varchar(8) NOT NULL COMMENT '番組ID',
   `PROGRAM_NAME` varchar(30) DEFAULT NULL COMMENT '番組名',
-  `CHANEL_ID` int DEFAULT NULL COMMENT 'チャンネルID',
+  `CHANNEL_ID` int DEFAULT NULL COMMENT 'チャンネルID',
   `GENRE_ID` int DEFAULT NULL COMMENT 'ジャンルID',
   `DELETE_FLG` int DEFAULT NULL COMMENT '論理削除フラグ',
   `TOROKU_DAY` timestamp NULL DEFAULT NULL COMMENT '登録日付',
@@ -254,7 +254,7 @@
     <t xml:space="preserve">Java課題(2023上期）			</t>
   </si>
   <si>
-    <t>CHANEL_KYOKU_ID</t>
+    <t>CHANNEL_KYOKU_ID</t>
   </si>
   <si>
     <t>チャンネル局ID</t>
@@ -266,9 +266,9 @@
     <t>エリアID</t>
   </si>
   <si>
-    <t>CREATE TABLE `M_CHANEL_KYOKU` (
-  `CHANEL_ID` int NOT NULL COMMENT 'チャンネルID',
-  `CHANEL_KYOKU_ID` int DEFAULT NULL COMMENT 'チャンネル局ID',
+    <t>CREATE TABLE `M_CHANNEL_KYOKU` (
+  `CHANNEL_ID` int NOT NULL COMMENT 'チャンネルID',
+  `CHANNEL_KYOKU_ID` int DEFAULT NULL COMMENT 'チャンネル局ID',
   `AREA_ID` int DEFAULT NULL COMMENT 'エリアID',
   `DELETE_FLG` int DEFAULT NULL COMMENT '論理削除フラグ',
   `TOROKU_DAY` timestamp NULL DEFAULT NULL COMMENT '登録日付',
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>順序</t>
+  </si>
+  <si>
+    <t>GENRE</t>
   </si>
   <si>
     <t>ジャンル</t>
@@ -342,7 +345,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -368,6 +371,11 @@
       <b/>
       <sz val="12.0"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -512,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -535,9 +543,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -565,6 +570,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -605,10 +613,10 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -626,11 +634,20 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -1002,7 +1019,7 @@
       <c r="H23" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="15">
         <v>45126.0</v>
       </c>
       <c r="K23" s="5"/>
@@ -1028,16 +1045,16 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="18"/>
     </row>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
@@ -2036,67 +2053,67 @@
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.0" customHeight="1"/>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" ht="33.75" customHeight="1">
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>1.0</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" ht="33.75" customHeight="1">
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>2.0</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" ht="33.75" customHeight="1">
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>3.0</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-      <c r="K6" s="28" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="K6" s="27" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="7"/>
@@ -2106,105 +2123,105 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" ht="33.75" customHeight="1">
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>4.0</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
       <c r="K7" s="9"/>
       <c r="P7" s="10"/>
     </row>
     <row r="8" ht="33.75" customHeight="1">
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>5.0</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
       <c r="K8" s="9"/>
       <c r="P8" s="10"/>
     </row>
     <row r="9" ht="33.75" customHeight="1">
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>6.0</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
       <c r="K9" s="9"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" ht="33.75" customHeight="1">
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <v>7.0</v>
       </c>
       <c r="C10" s="29"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
       <c r="K10" s="9"/>
       <c r="P10" s="10"/>
     </row>
     <row r="11" ht="33.75" customHeight="1">
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <v>8.0</v>
       </c>
       <c r="C11" s="29"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
       <c r="K11" s="9"/>
       <c r="P11" s="10"/>
     </row>
     <row r="12" ht="33.75" customHeight="1">
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <v>9.0</v>
       </c>
       <c r="C12" s="29"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
       <c r="K12" s="9"/>
       <c r="P12" s="10"/>
     </row>
     <row r="13" ht="33.75" customHeight="1">
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <v>10.0</v>
       </c>
       <c r="C13" s="29"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
       <c r="K13" s="11"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
@@ -2213,26 +2230,26 @@
       <c r="P13" s="13"/>
     </row>
     <row r="14" ht="33.75" customHeight="1">
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>11.0</v>
       </c>
       <c r="C14" s="29"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" ht="33.75" customHeight="1">
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>12.0</v>
       </c>
       <c r="C15" s="29"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" ht="33.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -3241,7 +3258,7 @@
     <hyperlink display="T_ONAIR_KANRI" location="T_ONAIR_KANRI!A1" ref="C4"/>
     <hyperlink display="M_TALENT" location="M_TALENT!A1" ref="C5"/>
     <hyperlink display="M_PROGRAM" location="M_PROGRAM!A1" ref="C6"/>
-    <hyperlink display="M_CHANEL_KYOKU" location="M_CHANEL_KYOKU!A1" ref="C7"/>
+    <hyperlink display="M_CHANNEL_KYOKU" location="M_CHANNEL_KYOKU!A1" ref="C7"/>
     <hyperlink display="M_KBN_GENRE" location="'    M_KBN_GENRE'!A1" ref="C8"/>
     <hyperlink display="M_NENTSUKI_SHU_KANRI" location="M_NENTSUKI_SHU_KANRI!A1" ref="C9"/>
   </hyperlinks>
@@ -3274,9 +3291,9 @@
       <c r="B2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="31" t="s">
         <v>4</v>
       </c>
@@ -3300,9 +3317,9 @@
       <c r="B3" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="35" t="s">
         <v>7</v>
       </c>
@@ -3323,14 +3340,14 @@
         <v>6</v>
       </c>
       <c r="C4" s="40"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="B5" s="41" t="s">
@@ -3360,7 +3377,7 @@
       <c r="J5" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="23"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="31">
@@ -3382,7 +3399,7 @@
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="40"/>
-      <c r="K6" s="23"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="B7" s="31">
@@ -3404,7 +3421,7 @@
         <v>33</v>
       </c>
       <c r="J7" s="40"/>
-      <c r="K7" s="23"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="31">
@@ -3428,7 +3445,7 @@
         <v>33</v>
       </c>
       <c r="J8" s="40"/>
-      <c r="K8" s="23"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="31">
@@ -3452,7 +3469,7 @@
         <v>33</v>
       </c>
       <c r="J9" s="43"/>
-      <c r="K9" s="23"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="31">
@@ -3474,7 +3491,7 @@
         <v>33</v>
       </c>
       <c r="J10" s="43"/>
-      <c r="K10" s="23"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="31">
@@ -3496,7 +3513,7 @@
         <v>33</v>
       </c>
       <c r="J11" s="43"/>
-      <c r="K11" s="23"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="31">
@@ -3518,7 +3535,7 @@
         <v>33</v>
       </c>
       <c r="J12" s="43"/>
-      <c r="K12" s="23"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="B13" s="31">
@@ -3540,7 +3557,7 @@
         <v>33</v>
       </c>
       <c r="J13" s="43"/>
-      <c r="K13" s="23"/>
+      <c r="K13" s="22"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="B14" s="31">
@@ -3562,7 +3579,7 @@
         <v>33</v>
       </c>
       <c r="J14" s="43"/>
-      <c r="K14" s="23"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1">
@@ -4603,9 +4620,9 @@
       <c r="B2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="31" t="s">
         <v>4</v>
       </c>
@@ -4629,9 +4646,9 @@
       <c r="B3" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="35" t="s">
         <v>9</v>
       </c>
@@ -4652,14 +4669,14 @@
         <v>6</v>
       </c>
       <c r="C4" s="40"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="B5" s="41" t="s">
@@ -4689,7 +4706,7 @@
       <c r="J5" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="23"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="31">
@@ -4713,7 +4730,7 @@
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="40"/>
-      <c r="K6" s="23"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="B7" s="31">
@@ -4735,7 +4752,7 @@
         <v>33</v>
       </c>
       <c r="J7" s="40"/>
-      <c r="K7" s="23"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="31">
@@ -4759,7 +4776,7 @@
         <v>33</v>
       </c>
       <c r="J8" s="40"/>
-      <c r="K8" s="23"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="31">
@@ -4781,7 +4798,7 @@
         <v>33</v>
       </c>
       <c r="J9" s="43"/>
-      <c r="K9" s="23"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="31">
@@ -4803,7 +4820,7 @@
         <v>33</v>
       </c>
       <c r="J10" s="43"/>
-      <c r="K10" s="23"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="48"/>
@@ -5884,9 +5901,9 @@
       <c r="B2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="31" t="s">
         <v>4</v>
       </c>
@@ -5910,9 +5927,9 @@
       <c r="B3" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="35" t="s">
         <v>11</v>
       </c>
@@ -5933,14 +5950,14 @@
         <v>6</v>
       </c>
       <c r="C4" s="40"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="B5" s="41" t="s">
@@ -5970,7 +5987,7 @@
       <c r="J5" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="23"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="31">
@@ -5994,7 +6011,7 @@
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="40"/>
-      <c r="K6" s="23"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="B7" s="31">
@@ -6016,7 +6033,7 @@
         <v>33</v>
       </c>
       <c r="J7" s="40"/>
-      <c r="K7" s="23"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="31">
@@ -6026,21 +6043,21 @@
       <c r="D8" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="54" t="s">
         <v>64</v>
       </c>
       <c r="F8" s="32" t="s">
         <v>65</v>
       </c>
       <c r="G8" s="32"/>
-      <c r="H8" s="47" t="s">
-        <v>45</v>
+      <c r="H8" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>33</v>
       </c>
       <c r="J8" s="40"/>
-      <c r="K8" s="23"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="31">
@@ -6057,14 +6074,14 @@
         <v>60</v>
       </c>
       <c r="G9" s="32"/>
-      <c r="H9" s="47" t="s">
-        <v>45</v>
+      <c r="H9" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="I9" s="31" t="s">
         <v>33</v>
       </c>
       <c r="J9" s="43"/>
-      <c r="K9" s="23"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="31">
@@ -6086,7 +6103,7 @@
         <v>33</v>
       </c>
       <c r="J10" s="43"/>
-      <c r="K10" s="23"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="31">
@@ -6108,7 +6125,7 @@
         <v>33</v>
       </c>
       <c r="J11" s="43"/>
-      <c r="K11" s="23"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="31">
@@ -6130,7 +6147,7 @@
         <v>33</v>
       </c>
       <c r="J12" s="43"/>
-      <c r="K12" s="23"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -6141,7 +6158,7 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="55" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7171,9 +7188,9 @@
       <c r="B2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="31" t="s">
         <v>4</v>
       </c>
@@ -7197,10 +7214,10 @@
       <c r="B3" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="35" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="56" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="35" t="s">
@@ -7220,14 +7237,14 @@
         <v>6</v>
       </c>
       <c r="C4" s="40"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="B5" s="41" t="s">
@@ -7257,7 +7274,7 @@
       <c r="J5" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="23"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="31">
@@ -7269,7 +7286,7 @@
       <c r="D6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="54" t="s">
         <v>64</v>
       </c>
       <c r="F6" s="32" t="s">
@@ -7281,7 +7298,7 @@
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="40"/>
-      <c r="K6" s="23"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="B7" s="31">
@@ -7291,7 +7308,7 @@
       <c r="D7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="54" t="s">
         <v>68</v>
       </c>
       <c r="F7" s="32" t="s">
@@ -7305,7 +7322,7 @@
         <v>33</v>
       </c>
       <c r="J7" s="40"/>
-      <c r="K7" s="23"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="31">
@@ -7329,7 +7346,7 @@
         <v>33</v>
       </c>
       <c r="J8" s="40"/>
-      <c r="K8" s="23"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="31">
@@ -7351,7 +7368,7 @@
         <v>33</v>
       </c>
       <c r="J9" s="43"/>
-      <c r="K9" s="23"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="31">
@@ -7373,7 +7390,7 @@
         <v>33</v>
       </c>
       <c r="J10" s="43"/>
-      <c r="K10" s="23"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="31">
@@ -7395,7 +7412,7 @@
         <v>33</v>
       </c>
       <c r="J11" s="43"/>
-      <c r="K11" s="23"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="53"/>
@@ -7409,7 +7426,7 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="55" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8438,9 +8455,9 @@
       <c r="B2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="31" t="s">
         <v>4</v>
       </c>
@@ -8464,9 +8481,9 @@
       <c r="B3" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="35" t="s">
         <v>73</v>
       </c>
@@ -8487,14 +8504,14 @@
         <v>6</v>
       </c>
       <c r="C4" s="40"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="B5" s="41" t="s">
@@ -8524,7 +8541,7 @@
       <c r="J5" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="23"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="31">
@@ -8546,7 +8563,7 @@
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="40"/>
-      <c r="K6" s="23"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="B7" s="31">
@@ -8570,7 +8587,7 @@
       </c>
       <c r="I7" s="31"/>
       <c r="J7" s="40"/>
-      <c r="K7" s="23"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="31">
@@ -8579,10 +8596,10 @@
       <c r="C8" s="32"/>
       <c r="D8" s="31"/>
       <c r="E8" s="32" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="32" t="s">
@@ -8592,7 +8609,7 @@
         <v>33</v>
       </c>
       <c r="J8" s="40"/>
-      <c r="K8" s="23"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="31">
@@ -8614,7 +8631,7 @@
         <v>33</v>
       </c>
       <c r="J9" s="43"/>
-      <c r="K9" s="23"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="31">
@@ -8636,7 +8653,7 @@
         <v>33</v>
       </c>
       <c r="J10" s="43"/>
-      <c r="K10" s="23"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="31">
@@ -8658,7 +8675,7 @@
         <v>33</v>
       </c>
       <c r="J11" s="43"/>
-      <c r="K11" s="23"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="53"/>
@@ -8672,8 +8689,8 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="54" t="s">
-        <v>77</v>
+      <c r="B17" s="57" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1"/>
@@ -9701,9 +9718,9 @@
       <c r="B2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="31" t="s">
         <v>4</v>
       </c>
@@ -9727,10 +9744,10 @@
       <c r="B3" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="55" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="58" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="35" t="s">
@@ -9750,14 +9767,14 @@
         <v>6</v>
       </c>
       <c r="C4" s="40"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="B5" s="41" t="s">
@@ -9787,7 +9804,7 @@
       <c r="J5" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="23"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="31">
@@ -9798,10 +9815,10 @@
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="32" t="s">
@@ -9809,7 +9826,7 @@
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="40"/>
-      <c r="K6" s="23"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="B7" s="31">
@@ -9820,10 +9837,10 @@
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32" t="s">
@@ -9831,7 +9848,7 @@
       </c>
       <c r="I7" s="31"/>
       <c r="J7" s="40"/>
-      <c r="K7" s="23"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="31">
@@ -9840,20 +9857,20 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>33</v>
       </c>
       <c r="J8" s="40"/>
-      <c r="K8" s="23"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="31">
@@ -9862,20 +9879,20 @@
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I9" s="31" t="s">
         <v>33</v>
       </c>
       <c r="J9" s="43"/>
-      <c r="K9" s="23"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="31">
@@ -9897,7 +9914,7 @@
         <v>33</v>
       </c>
       <c r="J10" s="43"/>
-      <c r="K10" s="23"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="31">
@@ -9919,7 +9936,7 @@
         <v>33</v>
       </c>
       <c r="J11" s="43"/>
-      <c r="K11" s="23"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="53"/>
@@ -9933,8 +9950,8 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="54" t="s">
-        <v>87</v>
+      <c r="B17" s="57" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1"/>
